--- a/models/CDCM/Summaries/Table 1202 defaults.xlsx
+++ b/models/CDCM/Summaries/Table 1202 defaults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28580" windowHeight="16320" tabRatio="500"/>
@@ -236,13 +236,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="\ _(???,???,??0_);[Red]\ \(???,???,??0\);;@"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="??0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\ _(???,???,??0_);[Red]\ \(???,???,??0\);;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="??0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -362,7 +362,7 @@
   </borders>
   <cellStyleXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -895,49 +895,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="132" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="132" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="132" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="132" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1852,13 +1852,13 @@
         <v>49</v>
       </c>
       <c r="F4" s="13">
-        <v>0.7</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G4" s="13">
-        <v>0.2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="H4" s="13">
-        <v>0.35</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
@@ -2534,34 +2534,34 @@
       </c>
       <c r="F23" s="6">
         <f>25*F$4</f>
-        <v>17.5</v>
+        <v>16.225000000000001</v>
       </c>
       <c r="G23" s="6">
         <f>25*G$4</f>
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="H23" s="6">
         <f>25*H$4</f>
-        <v>8.75</v>
+        <v>8.3250000000000011</v>
       </c>
       <c r="I23" s="14">
         <v>69</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="1"/>
-        <v>83094.375</v>
+        <v>77496.918749999997</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="2"/>
-        <v>12783.75</v>
+        <v>11377.5375</v>
       </c>
       <c r="L23" s="8">
         <f t="shared" si="3"/>
-        <v>0.1373792270531401</v>
+        <v>0.12812499999999999</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="4"/>
-        <v>1.8461538461538463</v>
+        <v>1.835277483209615</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2840,34 +2840,34 @@
       </c>
       <c r="F29" s="6">
         <f>250*F$4</f>
-        <v>175</v>
+        <v>162.25</v>
       </c>
       <c r="G29" s="6">
         <f>250*G$4</f>
-        <v>50</v>
+        <v>44.5</v>
       </c>
       <c r="H29" s="6">
         <f>250*H$4</f>
-        <v>87.5</v>
+        <v>83.25</v>
       </c>
       <c r="I29" s="14">
         <v>690</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="1"/>
-        <v>830943.75</v>
+        <v>774969.1875</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="2"/>
-        <v>127837.5</v>
+        <v>113775.375</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" si="3"/>
-        <v>0.1373792270531401</v>
+        <v>0.12812499999999999</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="4"/>
-        <v>1.8461538461538463</v>
+        <v>1.8352774832096148</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3141,34 +3141,34 @@
       </c>
       <c r="F35" s="6">
         <f>2500*F$4</f>
-        <v>1750</v>
+        <v>1622.5</v>
       </c>
       <c r="G35" s="6">
         <f>2500*G$4</f>
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="H35" s="6">
         <f>2500*H$4</f>
-        <v>875</v>
+        <v>832.5</v>
       </c>
       <c r="I35" s="14">
         <v>5000</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="1"/>
-        <v>8309437.5</v>
+        <v>7749691.875</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="2"/>
-        <v>1278375</v>
+        <v>1137753.75</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" si="3"/>
-        <v>0.18958333333333333</v>
+        <v>0.17681250000000001</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="4"/>
-        <v>1.8461538461538463</v>
+        <v>1.8352774832096148</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3191,34 +3191,34 @@
       </c>
       <c r="F36" s="6">
         <f>F$4/2</f>
-        <v>0.35</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="G36" s="6">
         <f>G$4/2</f>
-        <v>0.1</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="H36" s="6">
         <f>H$4/2</f>
-        <v>0.17499999999999999</v>
+        <v>0.16650000000000001</v>
       </c>
       <c r="I36" s="14">
         <v>6</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="1"/>
-        <v>1661.8875</v>
+        <v>1549.938375</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="2"/>
-        <v>255.67500000000001</v>
+        <v>227.55074999999997</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="3"/>
-        <v>3.1597222222222221E-2</v>
+        <v>2.9468750000000002E-2</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="4"/>
-        <v>1.8461538461538458</v>
+        <v>1.8352774832096148</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3241,34 +3241,34 @@
       </c>
       <c r="F37" s="6">
         <f>F$4</f>
-        <v>0.7</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G37" s="6">
         <f>G$4</f>
-        <v>0.2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="H37" s="6">
         <f>H$4</f>
-        <v>0.35</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I37" s="14">
         <v>9</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="1"/>
-        <v>3323.7750000000001</v>
+        <v>3099.8767499999999</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="2"/>
-        <v>511.35</v>
+        <v>455.10149999999993</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="3"/>
-        <v>4.2129629629629628E-2</v>
+        <v>3.9291666666666669E-2</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="4"/>
-        <v>1.8461538461538458</v>
+        <v>1.8352774832096148</v>
       </c>
     </row>
     <row r="38" spans="1:13">

--- a/models/CDCM/Summaries/Table 1202 defaults.xlsx
+++ b/models/CDCM/Summaries/Table 1202 defaults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28580" windowHeight="16320" tabRatio="500"/>
@@ -198,9 +198,6 @@
     <t>All-the-way generation</t>
   </si>
   <si>
-    <t>^(?:LV|LV Sub|HV|LDNO .*:) HH Metered$</t>
-  </si>
-  <si>
     <t>All-the-way demand</t>
   </si>
   <si>
@@ -210,12 +207,6 @@
     <t>^(?:Small|LV).*Non[- ]Domestic(?: [UTN]|$)</t>
   </si>
   <si>
-    <t>^(?:Small|LV).*(?:Non[- ]Domestic(?: [UTN]|$)|HH Metered$)</t>
-  </si>
-  <si>
-    <t>^(?:LV|LV Sub|HV|HV Sub|LDNO .*:) HH Metered$</t>
-  </si>
-  <si>
     <t>Custom demand</t>
   </si>
   <si>
@@ -229,6 +220,15 @@
   </si>
   <si>
     <t>^(?:|LDNO .*: )(?:Demand Category|HV.*HH)</t>
+  </si>
+  <si>
+    <t>^(?:LV|LV Sub|HV|HV Sub|LDNO .*:) HH Metered</t>
+  </si>
+  <si>
+    <t>^(?:Small|LV).*(?:Non[- ]Domestic(?: [UTN]|$)|HH Metered)</t>
+  </si>
+  <si>
+    <t>^(?:LV|LV Sub|HV|LDNO .*:) HH Metered</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1812,7 +1812,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
@@ -1869,7 +1869,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="12">
         <v>35</v>
@@ -1896,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6" s="12">
         <v>62</v>
@@ -1923,7 +1923,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="12">
         <v>93.4</v>
@@ -1950,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="11" spans="1:13" ht="19">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2068,7 +2068,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5">
         <f>D$6</f>
@@ -2118,7 +2118,7 @@
         <v>125</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5">
         <f>D$8</f>
@@ -2168,7 +2168,7 @@
         <v>135</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5">
         <f>D$7</f>
@@ -2218,7 +2218,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5">
         <f>D$9</f>
@@ -2269,7 +2269,7 @@
         <v>210</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5">
         <f>D$6</f>
@@ -2320,7 +2320,7 @@
         <v>225</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5">
         <f>D$8</f>
@@ -2371,7 +2371,7 @@
         <v>235</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5">
         <f>D$7</f>
@@ -2422,7 +2422,7 @@
         <v>245</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5">
         <f>D$9</f>
@@ -2472,7 +2472,7 @@
         <v>255</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5">
         <f>D$5</f>
@@ -2522,7 +2522,7 @@
         <v>265</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D23" s="5">
         <f>D$4</f>
@@ -2573,7 +2573,7 @@
         <v>310</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D24" s="5">
         <f>D$6</f>
@@ -2624,7 +2624,7 @@
         <v>325</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5">
         <f>D$8</f>
@@ -2675,7 +2675,7 @@
         <v>335</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5">
         <f>D$7</f>
@@ -2726,7 +2726,7 @@
         <v>345</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5">
         <f>D$9</f>
@@ -2777,7 +2777,7 @@
         <v>355</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D28" s="5">
         <f>D$5</f>
@@ -2828,7 +2828,7 @@
         <v>365</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D29" s="5">
         <f>D$4</f>
@@ -2878,7 +2878,7 @@
         <v>415</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5">
         <f>D$6</f>
@@ -2928,7 +2928,7 @@
         <v>420</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" s="5">
         <f>D$8</f>
@@ -2977,7 +2977,7 @@
         <v>430</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5">
         <f>D$7</f>
@@ -3027,7 +3027,7 @@
         <v>440</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D33" s="5">
         <f>D$9</f>
@@ -3078,7 +3078,7 @@
         <v>455</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" s="5">
         <f>D$5</f>
@@ -3129,7 +3129,7 @@
         <v>465</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" ref="D35:E37" si="8">D$4</f>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" s="7">
         <v>810</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" ref="D39:E41" si="9">D$8</f>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B40" s="7">
         <v>825</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="9"/>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B41" s="7">
         <v>830</v>

--- a/models/CDCM/Summaries/Table 1202 defaults.xlsx
+++ b/models/CDCM/Summaries/Table 1202 defaults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28580" windowHeight="16320" tabRatio="500"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$13:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$13:$N$35</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Capacity (kVA)</t>
   </si>
@@ -48,18 +48,9 @@
     <t>Load factor (kW/kVA)</t>
   </si>
   <si>
-    <t>Electric home</t>
-  </si>
-  <si>
     <t>Peak to average load ratio</t>
   </si>
   <si>
-    <t>Standard home</t>
-  </si>
-  <si>
-    <t>Business kVA</t>
-  </si>
-  <si>
     <t>Peak kW</t>
   </si>
   <si>
@@ -78,54 +69,9 @@
     <t>Off-peak hours</t>
   </si>
   <si>
-    <t>(?:^|: |Network )Domestic [UT]</t>
-  </si>
-  <si>
-    <t>Off-peak kVA</t>
-  </si>
-  <si>
-    <t>Continuous kVA</t>
-  </si>
-  <si>
-    <t>Intermittent</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>Gener</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Regular expression</t>
-  </si>
-  <si>
-    <t>Gen</t>
-  </si>
-  <si>
-    <t>Small off-peak</t>
-  </si>
-  <si>
-    <t>Small continuous</t>
-  </si>
-  <si>
     <t>Small business</t>
   </si>
   <si>
-    <t>Small intermittent</t>
-  </si>
-  <si>
     <t>Medium off-peak</t>
   </si>
   <si>
@@ -162,18 +108,6 @@
     <t>XL continuous</t>
   </si>
   <si>
-    <t>Domestic low use</t>
-  </si>
-  <si>
-    <t>Domestic electric heat</t>
-  </si>
-  <si>
-    <t>Medium housing electric</t>
-  </si>
-  <si>
-    <t>Medium housing standard</t>
-  </si>
-  <si>
     <t>Large housing electric</t>
   </si>
   <si>
@@ -186,9 +120,6 @@
     <t>XL housing standard</t>
   </si>
   <si>
-    <t>(?:^|: )(?:LV Network Domestic|Domestic [UT])</t>
-  </si>
-  <si>
     <t>Average kWh/year</t>
   </si>
   <si>
@@ -207,28 +138,55 @@
     <t>^(?:Small|LV).*Non[- ]Domestic(?: [UTN]|$)</t>
   </si>
   <si>
-    <t>Custom demand</t>
-  </si>
-  <si>
-    <t>Custom demand 2</t>
-  </si>
-  <si>
-    <t>Custom generation</t>
-  </si>
-  <si>
-    <t>Control tables used within this spreadsheet</t>
-  </si>
-  <si>
     <t>^(?:|LDNO .*: )(?:Demand Category|HV.*HH)</t>
   </si>
   <si>
-    <t>^(?:LV|LV Sub|HV|HV Sub|LDNO .*:) HH Metered</t>
-  </si>
-  <si>
     <t>^(?:Small|LV).*(?:Non[- ]Domestic(?: [UTN]|$)|HH Metered)</t>
   </si>
   <si>
-    <t>^(?:LV|LV Sub|HV|LDNO .*:) HH Metered</t>
+    <t>Business (per kVA)</t>
+  </si>
+  <si>
+    <t>Off-peak (per kVA)</t>
+  </si>
+  <si>
+    <t>Continuous (per kVA)</t>
+  </si>
+  <si>
+    <t>Intermittent (per KVA)</t>
+  </si>
+  <si>
+    <t>Consumption patterns</t>
+  </si>
+  <si>
+    <t>Standard home (3.1MWh)</t>
+  </si>
+  <si>
+    <t>Other demand</t>
+  </si>
+  <si>
+    <t>Other generation</t>
+  </si>
+  <si>
+    <t>Modulo 10</t>
+  </si>
+  <si>
+    <t>^(?:|LDNO .*: )(?:LV|LV Sub|HV) HH Metered</t>
+  </si>
+  <si>
+    <t>(?:^|: )(?:LV Network Domestic Disabled|Domestic [UT])</t>
+  </si>
+  <si>
+    <t>Economy 7 electric heat (8.4MWh 50% night)</t>
+  </si>
+  <si>
+    <t>Domestic 8400</t>
+  </si>
+  <si>
+    <t>Domestic 3100</t>
+  </si>
+  <si>
+    <t>Domestic 1550</t>
   </si>
 </sst>
 </file>
@@ -307,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,18 +296,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -360,7 +306,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="519">
+  <cellStyleXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -880,8 +826,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -919,14 +895,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -934,15 +902,8 @@
     <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="519">
+  <cellStyles count="549">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1202,6 +1163,21 @@
     <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1460,6 +1436,21 @@
     <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="132" builtinId="5"/>
   </cellStyles>
@@ -1795,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1810,195 +1801,156 @@
     <col min="10" max="16384" width="14.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:14" ht="19">
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="C3" s="16" t="s">
-        <v>28</v>
-      </c>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5">
         <v>35</v>
       </c>
-      <c r="E4" s="12">
-        <v>49</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="5">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6">
         <v>0.64900000000000002</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="6">
         <v>0.17799999999999999</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="6">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="12">
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5">
         <v>35</v>
       </c>
-      <c r="E5" s="12">
-        <v>49</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="E5" s="5">
+        <v>49</v>
+      </c>
+      <c r="F5" s="6">
         <v>1.2</v>
       </c>
-      <c r="H5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="G5" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5">
         <v>62</v>
       </c>
-      <c r="E6" s="12">
-        <v>49</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="E6" s="5">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6">
         <v>0.7</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5">
         <v>93.4</v>
       </c>
-      <c r="E7" s="12">
-        <v>49</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="5">
+        <v>49</v>
+      </c>
+      <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="6">
         <v>0.9</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="6">
         <v>0.9</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="12">
-        <v>49</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="5">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6">
         <v>0.9</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="6">
         <v>0.9</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="6">
         <v>0.9</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="12">
-        <v>49</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="5">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="6">
         <v>0.4</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="6">
         <v>0.4</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2007,11 +1959,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="19">
+    </row>
+    <row r="11" spans="1:14" ht="19">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2022,9 +1973,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="28">
+    <row r="13" spans="1:14" ht="28">
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -2048,27 +1999,30 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7">
         <v>110</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5">
         <f>D$6</f>
@@ -2079,1402 +2033,1178 @@
         <v>49</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:H14" si="0">F$6*$I14*0.3</f>
+        <f>F$6*$I14*0.3</f>
         <v>4.8299999999999992</v>
       </c>
       <c r="G14" s="6">
+        <f>G$6*$I14*0.3</f>
+        <v>1.5525</v>
+      </c>
+      <c r="H14" s="6">
+        <f>H$6*$I14*0.3</f>
+        <v>1.5525</v>
+      </c>
+      <c r="I14" s="12">
+        <v>23</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" ref="J14:J35" si="0">(D14*F14+E14*G14+(168-D14-E14)*H14)*365.25/7</f>
+        <v>24212.161607142854</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" ref="K14:K35" si="1">E14*G14*365.25/7</f>
+        <v>3969.3543749999999</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" ref="L14:L35" si="2">J14/365.25/24/I14</f>
+        <v>0.12008928571428572</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" ref="M14:M35" si="3">MAX(F14,H14)/J14*365.25*24</f>
+        <v>1.7486988847583642</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" ref="N14:N35" si="4">MOD(B14,10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7">
+        <v>210</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5">
+        <f>D$6</f>
+        <v>62</v>
+      </c>
+      <c r="E15" s="5">
+        <f>E$6</f>
+        <v>49</v>
+      </c>
+      <c r="F15" s="6">
+        <f>F$6*$I15</f>
+        <v>48.3</v>
+      </c>
+      <c r="G15" s="6">
+        <f>G$6*$I15</f>
+        <v>15.525</v>
+      </c>
+      <c r="H15" s="6">
+        <f>H$6*$I15</f>
+        <v>15.525</v>
+      </c>
+      <c r="I15" s="12">
+        <v>69</v>
+      </c>
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
-        <v>1.5525</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5525</v>
-      </c>
-      <c r="I14" s="14">
-        <v>23</v>
-      </c>
-      <c r="J14" s="15">
-        <f>(D14*F14+E14*G14+(168-D14-E14)*H14)*365.25/7</f>
-        <v>24212.161607142854</v>
-      </c>
-      <c r="K14" s="15">
-        <f>E14*G14*365.25/7</f>
-        <v>3969.3543749999999</v>
-      </c>
-      <c r="L14" s="8">
-        <f>J14/365.25/24/I14</f>
-        <v>0.12008928571428572</v>
-      </c>
-      <c r="M14" s="9">
-        <f>MAX(F14,H14)/J14*365.25*24</f>
+        <v>242121.61607142858</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="1"/>
+        <v>39693.543750000004</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.40029761904761901</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="3"/>
         <v>1.7486988847583642</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="7">
-        <v>125</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="N15" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
+        <v>225</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5">
         <f>D$8</f>
         <v>0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <f>E$8</f>
         <v>49</v>
       </c>
-      <c r="F15" s="6">
-        <f>F$8*$I15</f>
-        <v>20.7</v>
-      </c>
-      <c r="G15" s="6">
-        <f>G$8*$I15</f>
-        <v>20.7</v>
-      </c>
-      <c r="H15" s="6">
-        <f>H$8*$I15</f>
-        <v>20.7</v>
-      </c>
-      <c r="I15" s="14">
-        <v>23</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" ref="J15:J40" si="1">(D15*F15+E15*G15+(168-D15-E15)*H15)*365.25/7</f>
-        <v>181456.19999999998</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" ref="K15:K40" si="2">E15*G15*365.25/7</f>
-        <v>52924.724999999999</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" ref="L15:L41" si="3">J15/365.25/24/I15</f>
-        <v>0.9</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" ref="M15:M41" si="4">MAX(F15,H15)/J15*365.25*24</f>
+      <c r="F16" s="6">
+        <f>F$8*$I16</f>
+        <v>62.1</v>
+      </c>
+      <c r="G16" s="6">
+        <f>G$8*$I16</f>
+        <v>62.1</v>
+      </c>
+      <c r="H16" s="6">
+        <f>H$8*$I16</f>
+        <v>62.1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>69</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>544368.6</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="1"/>
+        <v>158774.17500000002</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="7">
-        <v>135</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="N16" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>235</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5">
         <f>D$7</f>
         <v>93.4</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <f>E$7</f>
         <v>49</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" ref="F16:H16" si="5">F$7*$I16*0.3</f>
+      <c r="F17" s="6">
+        <f>F$7*$I17</f>
         <v>0</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="5"/>
-        <v>6.21</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="5"/>
-        <v>6.21</v>
-      </c>
-      <c r="I16" s="14">
-        <v>23</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="G17" s="6">
+        <f>G$7*$I17</f>
+        <v>62.1</v>
+      </c>
+      <c r="H17" s="6">
+        <f>H$7*$I17</f>
+        <v>62.1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>69</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>241725.58071428569</v>
+      </c>
+      <c r="K17" s="13">
         <f t="shared" si="1"/>
-        <v>24172.558071428568</v>
-      </c>
-      <c r="K16" s="15">
+        <v>158774.17500000002</v>
+      </c>
+      <c r="L17" s="8">
         <f t="shared" si="2"/>
-        <v>15877.4175</v>
-      </c>
-      <c r="L16" s="8">
+        <v>0.39964285714285708</v>
+      </c>
+      <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>0.11989285714285713</v>
-      </c>
-      <c r="M16" s="9">
+        <v>2.25201072386059</v>
+      </c>
+      <c r="N17" s="13">
         <f t="shared" si="4"/>
-        <v>2.25201072386059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="7">
-        <v>145</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>245</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5">
         <f>D$9</f>
         <v>0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <f>E$9</f>
         <v>49</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" ref="F17:H17" si="6">F$9*$I17*0.3</f>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="6"/>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="6"/>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="I17" s="14">
-        <v>23</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="F18" s="6">
+        <f>F$9*$I18</f>
+        <v>27.6</v>
+      </c>
+      <c r="G18" s="6">
+        <f>G$9*$I18</f>
+        <v>27.6</v>
+      </c>
+      <c r="H18" s="6">
+        <f>H$9*$I18</f>
+        <v>27.6</v>
+      </c>
+      <c r="I18" s="12">
+        <v>69</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>241941.6</v>
+      </c>
+      <c r="K18" s="13">
         <f t="shared" si="1"/>
-        <v>24194.160000000003</v>
-      </c>
-      <c r="K17" s="15">
+        <v>70566.3</v>
+      </c>
+      <c r="L18" s="8">
         <f t="shared" si="2"/>
-        <v>7056.63</v>
-      </c>
-      <c r="L17" s="8">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7">
-        <f>100+B14</f>
-        <v>210</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7">
+        <v>310</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5">
         <f>D$6</f>
         <v>62</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <f>E$6</f>
         <v>49</v>
       </c>
-      <c r="F18" s="6">
-        <f>F$6*$I18</f>
-        <v>48.3</v>
-      </c>
-      <c r="G18" s="6">
-        <f>G$6*$I18</f>
-        <v>15.525</v>
-      </c>
-      <c r="H18" s="6">
-        <f>H$6*$I18</f>
-        <v>15.525</v>
-      </c>
-      <c r="I18" s="14">
-        <v>69</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="F19" s="6">
+        <f>F$6*$I19</f>
+        <v>482.99999999999994</v>
+      </c>
+      <c r="G19" s="6">
+        <f>G$6*$I19</f>
+        <v>155.25</v>
+      </c>
+      <c r="H19" s="6">
+        <f>H$6*$I19</f>
+        <v>155.25</v>
+      </c>
+      <c r="I19" s="12">
+        <v>690</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>2421216.1607142859</v>
+      </c>
+      <c r="K19" s="13">
         <f t="shared" si="1"/>
-        <v>242121.61607142858</v>
-      </c>
-      <c r="K18" s="15">
+        <v>396935.4375</v>
+      </c>
+      <c r="L19" s="8">
         <f t="shared" si="2"/>
-        <v>39693.543750000004</v>
-      </c>
-      <c r="L18" s="8">
+        <v>0.40029761904761907</v>
+      </c>
+      <c r="M19" s="9">
         <f t="shared" si="3"/>
-        <v>0.40029761904761901</v>
-      </c>
-      <c r="M18" s="9">
+        <v>1.748698884758364</v>
+      </c>
+      <c r="N19" s="13">
         <f t="shared" si="4"/>
-        <v>1.7486988847583642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="7">
-        <f>100+B15</f>
-        <v>225</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7">
+        <v>320</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5">
         <f>D$8</f>
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <f>E$8</f>
         <v>49</v>
       </c>
-      <c r="F19" s="6">
-        <f>F$8*$I19</f>
-        <v>62.1</v>
-      </c>
-      <c r="G19" s="6">
-        <f>G$8*$I19</f>
-        <v>62.1</v>
-      </c>
-      <c r="H19" s="6">
-        <f>H$8*$I19</f>
-        <v>62.1</v>
-      </c>
-      <c r="I19" s="14">
-        <v>69</v>
-      </c>
-      <c r="J19" s="15">
+      <c r="F20" s="6">
+        <f>F$8*$I20</f>
+        <v>621</v>
+      </c>
+      <c r="G20" s="6">
+        <f>G$8*$I20</f>
+        <v>621</v>
+      </c>
+      <c r="H20" s="6">
+        <f>H$8*$I20</f>
+        <v>621</v>
+      </c>
+      <c r="I20" s="12">
+        <v>690</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>5443686</v>
+      </c>
+      <c r="K20" s="13">
         <f t="shared" si="1"/>
-        <v>544368.6</v>
-      </c>
-      <c r="K19" s="15">
+        <v>1587741.75</v>
+      </c>
+      <c r="L20" s="8">
         <f t="shared" si="2"/>
-        <v>158774.17500000002</v>
-      </c>
-      <c r="L19" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="M19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="7">
-        <f>100+B16</f>
-        <v>235</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>330</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5">
         <f>D$7</f>
         <v>93.4</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <f>E$7</f>
         <v>49</v>
       </c>
-      <c r="F20" s="6">
-        <f>F$7*$I20</f>
+      <c r="F21" s="6">
+        <f>F$7*$I21</f>
         <v>0</v>
       </c>
-      <c r="G20" s="6">
-        <f>G$7*$I20</f>
-        <v>62.1</v>
-      </c>
-      <c r="H20" s="6">
-        <f>H$7*$I20</f>
-        <v>62.1</v>
-      </c>
-      <c r="I20" s="14">
-        <v>69</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="G21" s="6">
+        <f>G$7*$I21</f>
+        <v>621</v>
+      </c>
+      <c r="H21" s="6">
+        <f>H$7*$I21</f>
+        <v>621</v>
+      </c>
+      <c r="I21" s="12">
+        <v>690</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>2417255.807142857</v>
+      </c>
+      <c r="K21" s="13">
         <f t="shared" si="1"/>
-        <v>241725.58071428569</v>
-      </c>
-      <c r="K20" s="15">
+        <v>1587741.75</v>
+      </c>
+      <c r="L21" s="8">
         <f t="shared" si="2"/>
-        <v>158774.17500000002</v>
-      </c>
-      <c r="L20" s="8">
+        <v>0.39964285714285713</v>
+      </c>
+      <c r="M21" s="9">
         <f t="shared" si="3"/>
-        <v>0.39964285714285708</v>
-      </c>
-      <c r="M20" s="9">
+        <v>2.25201072386059</v>
+      </c>
+      <c r="N21" s="13">
         <f t="shared" si="4"/>
-        <v>2.25201072386059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7">
-        <f>100+B17</f>
-        <v>245</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>340</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5">
         <f>D$9</f>
         <v>0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <f>E$9</f>
         <v>49</v>
       </c>
-      <c r="F21" s="6">
-        <f>F$9*$I21</f>
-        <v>27.6</v>
-      </c>
-      <c r="G21" s="6">
-        <f>G$9*$I21</f>
-        <v>27.6</v>
-      </c>
-      <c r="H21" s="6">
-        <f>H$9*$I21</f>
-        <v>27.6</v>
-      </c>
-      <c r="I21" s="14">
-        <v>69</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="F22" s="6">
+        <f>F$9*$I22</f>
+        <v>276</v>
+      </c>
+      <c r="G22" s="6">
+        <f>G$9*$I22</f>
+        <v>276</v>
+      </c>
+      <c r="H22" s="6">
+        <f>H$9*$I22</f>
+        <v>276</v>
+      </c>
+      <c r="I22" s="12">
+        <v>690</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
+        <v>2419416</v>
+      </c>
+      <c r="K22" s="13">
         <f t="shared" si="1"/>
-        <v>241941.6</v>
-      </c>
-      <c r="K21" s="15">
+        <v>705663</v>
+      </c>
+      <c r="L22" s="8">
         <f t="shared" si="2"/>
-        <v>70566.3</v>
-      </c>
-      <c r="L21" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="M21" s="9">
+        <v>1</v>
+      </c>
+      <c r="N22" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="7">
-        <v>255</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="7">
+        <v>355</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5">
         <f>D$5</f>
         <v>35</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <f>E$5</f>
         <v>49</v>
       </c>
-      <c r="F22" s="6">
-        <f>10*F$5</f>
-        <v>10</v>
-      </c>
-      <c r="G22" s="6">
-        <f>10*G$5</f>
-        <v>12</v>
-      </c>
-      <c r="H22" s="6">
-        <f>10*H$5</f>
+      <c r="F23" s="6">
+        <f>100*F$5</f>
+        <v>120</v>
+      </c>
+      <c r="G23" s="6">
+        <f>100*G$5</f>
+        <v>140</v>
+      </c>
+      <c r="H23" s="6">
+        <f>100*H$5</f>
+        <v>60</v>
+      </c>
+      <c r="I23" s="12">
+        <v>690</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>840075</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="1"/>
+        <v>357945</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2521739130434781</v>
+      </c>
+      <c r="N23" s="13">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I22" s="14">
-        <v>69</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="1"/>
-        <v>70858.5</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="2"/>
-        <v>30681</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="3"/>
-        <v>0.11714975845410629</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="4"/>
-        <v>1.2371134020618557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="7">
-        <v>265</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="5">
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7">
+        <v>365</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5">
         <f>D$4</f>
         <v>35</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <f>E$4</f>
         <v>49</v>
       </c>
-      <c r="F23" s="6">
-        <f>25*F$4</f>
-        <v>16.225000000000001</v>
-      </c>
-      <c r="G23" s="6">
-        <f>25*G$4</f>
-        <v>4.45</v>
-      </c>
-      <c r="H23" s="6">
-        <f>25*H$4</f>
-        <v>8.3250000000000011</v>
-      </c>
-      <c r="I23" s="14">
-        <v>69</v>
-      </c>
-      <c r="J23" s="15">
+      <c r="F24" s="6">
+        <f>250*F$4</f>
+        <v>162.25</v>
+      </c>
+      <c r="G24" s="6">
+        <f>250*G$4</f>
+        <v>44.5</v>
+      </c>
+      <c r="H24" s="6">
+        <f>250*H$4</f>
+        <v>83.25</v>
+      </c>
+      <c r="I24" s="12">
+        <v>690</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="0"/>
+        <v>774969.1875</v>
+      </c>
+      <c r="K24" s="13">
         <f t="shared" si="1"/>
-        <v>77496.918749999997</v>
-      </c>
-      <c r="K23" s="15">
+        <v>113775.375</v>
+      </c>
+      <c r="L24" s="8">
         <f t="shared" si="2"/>
-        <v>11377.5375</v>
-      </c>
-      <c r="L23" s="8">
+        <v>0.12812499999999999</v>
+      </c>
+      <c r="M24" s="9">
         <f t="shared" si="3"/>
-        <v>0.12812499999999999</v>
-      </c>
-      <c r="M23" s="9">
+        <v>1.8352774832096148</v>
+      </c>
+      <c r="N24" s="13">
         <f t="shared" si="4"/>
-        <v>1.835277483209615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="7">
-        <f t="shared" ref="B24:B35" si="7">B18+100</f>
-        <v>310</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="7">
+        <v>410</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="5">
         <f>D$6</f>
         <v>62</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <f>E$6</f>
         <v>49</v>
       </c>
-      <c r="F24" s="6">
-        <f>F$6*$I24</f>
-        <v>482.99999999999994</v>
-      </c>
-      <c r="G24" s="6">
-        <f>G$6*$I24</f>
-        <v>155.25</v>
-      </c>
-      <c r="H24" s="6">
-        <f>H$6*$I24</f>
-        <v>155.25</v>
-      </c>
-      <c r="I24" s="14">
-        <v>690</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="F25" s="6">
+        <f>F$6*$I25</f>
+        <v>3500</v>
+      </c>
+      <c r="G25" s="6">
+        <f>G$6*$I25</f>
+        <v>1125</v>
+      </c>
+      <c r="H25" s="6">
+        <f>H$6*$I25</f>
+        <v>1125</v>
+      </c>
+      <c r="I25" s="12">
+        <v>5000</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>17545044.642857142</v>
+      </c>
+      <c r="K25" s="13">
         <f t="shared" si="1"/>
-        <v>2421216.1607142859</v>
-      </c>
-      <c r="K24" s="15">
+        <v>2876343.75</v>
+      </c>
+      <c r="L25" s="8">
         <f t="shared" si="2"/>
-        <v>396935.4375</v>
-      </c>
-      <c r="L24" s="8">
+        <v>0.40029761904761901</v>
+      </c>
+      <c r="M25" s="9">
         <f t="shared" si="3"/>
-        <v>0.40029761904761907</v>
-      </c>
-      <c r="M24" s="9">
+        <v>1.7486988847583644</v>
+      </c>
+      <c r="N25" s="13">
         <f t="shared" si="4"/>
-        <v>1.748698884758364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="7">
-        <f t="shared" si="7"/>
-        <v>325</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="7">
+        <v>420</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5">
         <f>D$8</f>
         <v>0</v>
       </c>
-      <c r="E25" s="5">
-        <f>E$8</f>
-        <v>49</v>
-      </c>
-      <c r="F25" s="6">
-        <f>F$8*$I25</f>
-        <v>621</v>
-      </c>
-      <c r="G25" s="6">
-        <f>G$8*$I25</f>
-        <v>621</v>
-      </c>
-      <c r="H25" s="6">
-        <f>H$8*$I25</f>
-        <v>621</v>
-      </c>
-      <c r="I25" s="14">
-        <v>690</v>
-      </c>
-      <c r="J25" s="15">
+      <c r="E26" s="5">
+        <v>49</v>
+      </c>
+      <c r="F26" s="6">
+        <f>F$8*$I26</f>
+        <v>4500</v>
+      </c>
+      <c r="G26" s="6">
+        <f>G$8*$I26</f>
+        <v>4500</v>
+      </c>
+      <c r="H26" s="6">
+        <f>H$8*$I26</f>
+        <v>4500</v>
+      </c>
+      <c r="I26" s="12">
+        <v>5000</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="0"/>
+        <v>39447000</v>
+      </c>
+      <c r="K26" s="13">
         <f t="shared" si="1"/>
-        <v>5443686</v>
-      </c>
-      <c r="K25" s="15">
+        <v>11505375</v>
+      </c>
+      <c r="L26" s="8">
         <f t="shared" si="2"/>
-        <v>1587741.75</v>
-      </c>
-      <c r="L25" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="M26" s="9">
         <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="M25" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7">
+        <v>430</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="7">
-        <f t="shared" si="7"/>
-        <v>335</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <f>D$7</f>
         <v>93.4</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <f>E$7</f>
         <v>49</v>
       </c>
-      <c r="F26" s="6">
-        <f>F$7*$I26</f>
+      <c r="F27" s="6">
+        <f>F$7*$I27</f>
         <v>0</v>
       </c>
-      <c r="G26" s="6">
-        <f>G$7*$I26</f>
-        <v>621</v>
-      </c>
-      <c r="H26" s="6">
-        <f>H$7*$I26</f>
-        <v>621</v>
-      </c>
-      <c r="I26" s="14">
-        <v>690</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="G27" s="6">
+        <f>G$7*$I27</f>
+        <v>4500</v>
+      </c>
+      <c r="H27" s="6">
+        <f>H$7*$I27</f>
+        <v>4500</v>
+      </c>
+      <c r="I27" s="12">
+        <v>5000</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="0"/>
+        <v>17516346.428571429</v>
+      </c>
+      <c r="K27" s="13">
         <f t="shared" si="1"/>
-        <v>2417255.807142857</v>
-      </c>
-      <c r="K26" s="15">
+        <v>11505375</v>
+      </c>
+      <c r="L27" s="8">
         <f t="shared" si="2"/>
-        <v>1587741.75</v>
-      </c>
-      <c r="L26" s="8">
+        <v>0.39964285714285713</v>
+      </c>
+      <c r="M27" s="9">
         <f t="shared" si="3"/>
-        <v>0.39964285714285713</v>
-      </c>
-      <c r="M26" s="9">
+        <v>2.2520107238605895</v>
+      </c>
+      <c r="N27" s="13">
         <f t="shared" si="4"/>
-        <v>2.25201072386059</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="7">
-        <f t="shared" si="7"/>
-        <v>345</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7">
+        <v>440</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5">
         <f>D$9</f>
         <v>0</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <f>E$9</f>
         <v>49</v>
       </c>
-      <c r="F27" s="6">
-        <f>F$9*$I27</f>
-        <v>276</v>
-      </c>
-      <c r="G27" s="6">
-        <f>G$9*$I27</f>
-        <v>276</v>
-      </c>
-      <c r="H27" s="6">
-        <f>H$9*$I27</f>
-        <v>276</v>
-      </c>
-      <c r="I27" s="14">
-        <v>690</v>
-      </c>
-      <c r="J27" s="15">
+      <c r="F28" s="6">
+        <f>F$9*$I28</f>
+        <v>2000</v>
+      </c>
+      <c r="G28" s="6">
+        <f>G$9*$I28</f>
+        <v>2000</v>
+      </c>
+      <c r="H28" s="6">
+        <f>H$9*$I28</f>
+        <v>2000</v>
+      </c>
+      <c r="I28" s="12">
+        <v>5000</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="0"/>
+        <v>17532000</v>
+      </c>
+      <c r="K28" s="13">
         <f t="shared" si="1"/>
-        <v>2419416</v>
-      </c>
-      <c r="K27" s="15">
+        <v>5113500</v>
+      </c>
+      <c r="L28" s="8">
         <f t="shared" si="2"/>
-        <v>705663</v>
-      </c>
-      <c r="L27" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M28" s="9">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="M27" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="7">
-        <f t="shared" si="7"/>
-        <v>355</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="7">
+        <v>455</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5">
         <f>D$5</f>
         <v>35</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <f>E$5</f>
         <v>49</v>
       </c>
-      <c r="F28" s="6">
-        <f>100*F$5</f>
-        <v>100</v>
-      </c>
-      <c r="G28" s="6">
-        <f>100*G$5</f>
-        <v>120</v>
-      </c>
-      <c r="H28" s="6">
-        <f>100*H$5</f>
+      <c r="F29" s="6">
+        <f>1000*F$5</f>
+        <v>1200</v>
+      </c>
+      <c r="G29" s="6">
+        <f>1000*G$5</f>
+        <v>1400</v>
+      </c>
+      <c r="H29" s="6">
+        <f>1000*H$5</f>
+        <v>600</v>
+      </c>
+      <c r="I29" s="12">
+        <v>5000</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>8400750</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="1"/>
+        <v>3579450</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19166666666666668</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2521739130434781</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="7">
+        <v>465</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:E32" si="5">D$4</f>
+        <v>35</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="F30" s="6">
+        <f>2500*F$4</f>
+        <v>1622.5</v>
+      </c>
+      <c r="G30" s="6">
+        <f>2500*G$4</f>
+        <v>445</v>
+      </c>
+      <c r="H30" s="6">
+        <f>2500*H$4</f>
+        <v>832.5</v>
+      </c>
+      <c r="I30" s="12">
+        <v>5000</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="0"/>
+        <v>7749691.875</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" si="1"/>
+        <v>1137753.75</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="2"/>
+        <v>0.17681250000000001</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="3"/>
+        <v>1.8352774832096148</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="7">
+        <v>710</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="14">
-        <v>690</v>
-      </c>
-      <c r="J28" s="15">
+      <c r="D31" s="5">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="F31" s="6">
+        <f>F$4/2</f>
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="G31" s="6">
+        <f>G$4/2</f>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <f>H$4/2</f>
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="I31" s="12">
+        <v>6</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="0"/>
+        <v>1549.938375</v>
+      </c>
+      <c r="K31" s="13">
         <f t="shared" si="1"/>
-        <v>708585</v>
-      </c>
-      <c r="K28" s="15">
+        <v>227.55074999999997</v>
+      </c>
+      <c r="L31" s="8">
         <f t="shared" si="2"/>
-        <v>306810</v>
-      </c>
-      <c r="L28" s="8">
+        <v>2.9468750000000002E-2</v>
+      </c>
+      <c r="M31" s="9">
         <f t="shared" si="3"/>
-        <v>0.11714975845410627</v>
-      </c>
-      <c r="M28" s="9">
+        <v>1.8352774832096148</v>
+      </c>
+      <c r="N31" s="13">
         <f t="shared" si="4"/>
-        <v>1.2371134020618557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="7">
-        <f t="shared" si="7"/>
-        <v>365</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="5">
-        <f>D$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="7">
+        <v>720</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="E29" s="5">
-        <f>E$4</f>
-        <v>49</v>
-      </c>
-      <c r="F29" s="6">
-        <f>250*F$4</f>
-        <v>162.25</v>
-      </c>
-      <c r="G29" s="6">
-        <f>250*G$4</f>
-        <v>44.5</v>
-      </c>
-      <c r="H29" s="6">
-        <f>250*H$4</f>
-        <v>83.25</v>
-      </c>
-      <c r="I29" s="14">
-        <v>690</v>
-      </c>
-      <c r="J29" s="15">
+      <c r="E32" s="5">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="F32" s="6">
+        <f>F$4</f>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="G32" s="6">
+        <f>G$4</f>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H32" s="6">
+        <f>H$4</f>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="I32" s="12">
+        <v>9</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="0"/>
+        <v>3099.8767499999999</v>
+      </c>
+      <c r="K32" s="13">
         <f t="shared" si="1"/>
-        <v>774969.1875</v>
-      </c>
-      <c r="K29" s="15">
+        <v>455.10149999999993</v>
+      </c>
+      <c r="L32" s="8">
         <f t="shared" si="2"/>
-        <v>113775.375</v>
-      </c>
-      <c r="L29" s="8">
+        <v>3.9291666666666669E-2</v>
+      </c>
+      <c r="M32" s="9">
         <f t="shared" si="3"/>
-        <v>0.12812499999999999</v>
-      </c>
-      <c r="M29" s="9">
+        <v>1.8352774832096148</v>
+      </c>
+      <c r="N32" s="13">
         <f t="shared" si="4"/>
-        <v>1.8352774832096148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="7">
-        <v>415</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="5">
-        <f>D$6</f>
-        <v>62</v>
-      </c>
-      <c r="E30" s="5">
-        <f>E$6</f>
-        <v>49</v>
-      </c>
-      <c r="F30" s="6">
-        <f>F$6*$I30</f>
-        <v>3500</v>
-      </c>
-      <c r="G30" s="6">
-        <f>G$6*$I30</f>
-        <v>1125</v>
-      </c>
-      <c r="H30" s="6">
-        <f>H$6*$I30</f>
-        <v>1125</v>
-      </c>
-      <c r="I30" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="7">
+        <v>740</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="5">
+        <f>D$5</f>
+        <v>35</v>
+      </c>
+      <c r="E33" s="5">
+        <f>E$5</f>
+        <v>49</v>
+      </c>
+      <c r="F33" s="6">
+        <f>F$5</f>
+        <v>1.2</v>
+      </c>
+      <c r="G33" s="6">
+        <f>G$5</f>
+        <v>1.4</v>
+      </c>
+      <c r="H33" s="6">
+        <f>H$5</f>
+        <v>0.6</v>
+      </c>
+      <c r="I33" s="12">
+        <v>18</v>
+      </c>
+      <c r="J33" s="13">
+        <f t="shared" si="0"/>
+        <v>8400.75</v>
+      </c>
+      <c r="K33" s="13">
         <f t="shared" si="1"/>
-        <v>17545044.642857142</v>
-      </c>
-      <c r="K30" s="15">
+        <v>3579.45</v>
+      </c>
+      <c r="L33" s="8">
         <f t="shared" si="2"/>
-        <v>2876343.75</v>
-      </c>
-      <c r="L30" s="8">
+        <v>5.3240740740740741E-2</v>
+      </c>
+      <c r="M33" s="9">
         <f t="shared" si="3"/>
-        <v>0.40029761904761901</v>
-      </c>
-      <c r="M30" s="9">
+        <v>1.2521739130434781</v>
+      </c>
+      <c r="N33" s="13">
         <f t="shared" si="4"/>
-        <v>1.7486988847583644</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="7">
-        <v>420</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="7">
+        <v>810</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="5">
         <f>D$8</f>
         <v>0</v>
       </c>
-      <c r="E31" s="5">
-        <v>49</v>
-      </c>
-      <c r="F31" s="6">
-        <f>F$8*$I31</f>
-        <v>4500</v>
-      </c>
-      <c r="G31" s="6">
-        <f>G$8*$I31</f>
-        <v>4500</v>
-      </c>
-      <c r="H31" s="6">
-        <f>H$8*$I31</f>
-        <v>4500</v>
-      </c>
-      <c r="I31" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J31" s="15">
+      <c r="E34" s="5">
+        <f>E$8</f>
+        <v>49</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:H35" si="6">F$8*$I34</f>
+        <v>450</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="I34" s="12">
+        <v>500</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="0"/>
+        <v>3944700</v>
+      </c>
+      <c r="K34" s="13">
         <f t="shared" si="1"/>
-        <v>39447000</v>
-      </c>
-      <c r="K31" s="15">
+        <v>1150537.5</v>
+      </c>
+      <c r="L34" s="8">
         <f t="shared" si="2"/>
-        <v>11505375</v>
-      </c>
-      <c r="L31" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="M34" s="9">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N34" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="7">
+        <v>830</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5">
+        <f>D$8</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <f>E$8</f>
+        <v>49</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="I35" s="12">
+        <v>500</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>3944700</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="1"/>
+        <v>1150537.5</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M35" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="7">
-        <v>430</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="5">
-        <f>D$7</f>
-        <v>93.4</v>
-      </c>
-      <c r="E32" s="5">
-        <f>E$7</f>
-        <v>49</v>
-      </c>
-      <c r="F32" s="6">
-        <f>F$7*$I32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="6">
-        <f>G$7*$I32</f>
-        <v>4500</v>
-      </c>
-      <c r="H32" s="6">
-        <f>H$7*$I32</f>
-        <v>4500</v>
-      </c>
-      <c r="I32" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="1"/>
-        <v>17516346.428571429</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" si="2"/>
-        <v>11505375</v>
-      </c>
-      <c r="L32" s="8">
-        <f t="shared" si="3"/>
-        <v>0.39964285714285713</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="4"/>
-        <v>2.2520107238605895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="7">
-        <v>440</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="5">
-        <f>D$9</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <f>E$9</f>
-        <v>49</v>
-      </c>
-      <c r="F33" s="6">
-        <f>F$9*$I33</f>
-        <v>2000</v>
-      </c>
-      <c r="G33" s="6">
-        <f>G$9*$I33</f>
-        <v>2000</v>
-      </c>
-      <c r="H33" s="6">
-        <f>H$9*$I33</f>
-        <v>2000</v>
-      </c>
-      <c r="I33" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="1"/>
-        <v>17532000</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="2"/>
-        <v>5113500</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="7">
-        <f t="shared" si="7"/>
-        <v>455</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="5">
-        <f>D$5</f>
-        <v>35</v>
-      </c>
-      <c r="E34" s="5">
-        <f>E$5</f>
-        <v>49</v>
-      </c>
-      <c r="F34" s="6">
-        <f>1000*F$5</f>
-        <v>1000</v>
-      </c>
-      <c r="G34" s="6">
-        <f>1000*G$5</f>
-        <v>1200</v>
-      </c>
-      <c r="H34" s="6">
-        <f>1000*H$5</f>
-        <v>500</v>
-      </c>
-      <c r="I34" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" si="1"/>
-        <v>7085850</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="2"/>
-        <v>3068100</v>
-      </c>
-      <c r="L34" s="8">
-        <f t="shared" si="3"/>
-        <v>0.16166666666666668</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="shared" si="4"/>
-        <v>1.2371134020618557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="7">
-        <f t="shared" si="7"/>
-        <v>465</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" ref="D35:E37" si="8">D$4</f>
-        <v>35</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="F35" s="6">
-        <f>2500*F$4</f>
-        <v>1622.5</v>
-      </c>
-      <c r="G35" s="6">
-        <f>2500*G$4</f>
-        <v>445</v>
-      </c>
-      <c r="H35" s="6">
-        <f>2500*H$4</f>
-        <v>832.5</v>
-      </c>
-      <c r="I35" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="1"/>
-        <v>7749691.875</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="2"/>
-        <v>1137753.75</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" si="3"/>
-        <v>0.17681250000000001</v>
-      </c>
-      <c r="M35" s="9">
-        <f t="shared" si="4"/>
-        <v>1.8352774832096148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="7">
-        <v>705</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="F36" s="6">
-        <f>F$4/2</f>
-        <v>0.32450000000000001</v>
-      </c>
-      <c r="G36" s="6">
-        <f>G$4/2</f>
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="H36" s="6">
-        <f>H$4/2</f>
-        <v>0.16650000000000001</v>
-      </c>
-      <c r="I36" s="14">
-        <v>6</v>
-      </c>
-      <c r="J36" s="15">
-        <f t="shared" si="1"/>
-        <v>1549.938375</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="2"/>
-        <v>227.55074999999997</v>
-      </c>
-      <c r="L36" s="8">
-        <f t="shared" si="3"/>
-        <v>2.9468750000000002E-2</v>
-      </c>
-      <c r="M36" s="9">
-        <f t="shared" si="4"/>
-        <v>1.8352774832096148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="7">
-        <v>720</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="5">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="F37" s="6">
-        <f>F$4</f>
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="G37" s="6">
-        <f>G$4</f>
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="H37" s="6">
-        <f>H$4</f>
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="I37" s="14">
-        <v>9</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="1"/>
-        <v>3099.8767499999999</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="2"/>
-        <v>455.10149999999993</v>
-      </c>
-      <c r="L37" s="8">
-        <f t="shared" si="3"/>
-        <v>3.9291666666666669E-2</v>
-      </c>
-      <c r="M37" s="9">
-        <f t="shared" si="4"/>
-        <v>1.8352774832096148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="7">
-        <v>745</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="5">
-        <f>D$5</f>
-        <v>35</v>
-      </c>
-      <c r="E38" s="5">
-        <f>E$5</f>
-        <v>49</v>
-      </c>
-      <c r="F38" s="6">
-        <f>F$5</f>
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
-        <f>G$5</f>
-        <v>1.2</v>
-      </c>
-      <c r="H38" s="6">
-        <f>H$5</f>
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="14">
-        <v>18</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="1"/>
-        <v>7085.85</v>
-      </c>
-      <c r="K38" s="15">
-        <f t="shared" si="2"/>
-        <v>3068.1</v>
-      </c>
-      <c r="L38" s="8">
-        <f t="shared" si="3"/>
-        <v>4.4907407407407417E-2</v>
-      </c>
-      <c r="M38" s="9">
-        <f t="shared" si="4"/>
-        <v>1.2371134020618557</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="7">
-        <v>810</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="5">
-        <f t="shared" ref="D39:E41" si="9">D$8</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" ref="F39:H41" si="10">F$8*$I39</f>
-        <v>450</v>
-      </c>
-      <c r="G39" s="6">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="I39" s="14">
-        <v>500</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" ref="J39" si="11">(D39*F39+E39*G39+(168-D39-E39)*H39)*365.25/7</f>
-        <v>3944700</v>
-      </c>
-      <c r="K39" s="15">
-        <f t="shared" ref="K39" si="12">E39*G39*365.25/7</f>
-        <v>1150537.5</v>
-      </c>
-      <c r="L39" s="8">
-        <f t="shared" ref="L39" si="13">J39/365.25/24/I39</f>
-        <v>0.9</v>
-      </c>
-      <c r="M39" s="9">
-        <f t="shared" ref="M39" si="14">MAX(F39,H39)/J39*365.25*24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="7">
-        <v>825</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="I40" s="14">
-        <v>500</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="1"/>
-        <v>3944700</v>
-      </c>
-      <c r="K40" s="15">
-        <f t="shared" si="2"/>
-        <v>1150537.5</v>
-      </c>
-      <c r="L40" s="8">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="M40" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="7">
-        <v>830</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="I41" s="14">
-        <v>500</v>
-      </c>
-      <c r="J41" s="15">
-        <f t="shared" ref="J41" si="15">(D41*F41+E41*G41+(168-D41-E41)*H41)*365.25/7</f>
-        <v>3944700</v>
-      </c>
-      <c r="K41" s="15">
-        <f t="shared" ref="K41" si="16">E41*G41*365.25/7</f>
-        <v>1150537.5</v>
-      </c>
-      <c r="L41" s="8">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A13:M40">
-    <sortState ref="A4:M29">
-      <sortCondition ref="B3:B29"/>
+  <autoFilter ref="A13:N35">
+    <sortState ref="A14:N35">
+      <sortCondition ref="B13:B35"/>
     </sortState>
   </autoFilter>
   <sortState ref="A5:L23">
